--- a/FigureGeneration/SeizurePredictionResult.xlsx
+++ b/FigureGeneration/SeizurePredictionResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqili/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\123\Memristive-Seizure-Detection-and-Prediction-by-Parallel-Convolutional-Neural-Networks\FigureGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34700F33-7A27-4F44-B0B3-C44662AB17E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8796BD5-4BD0-4C89-A4BD-5E5C6D09E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="38400" windowHeight="19740" xr2:uid="{DE4B78CF-EF85-F649-9989-6581103133C2}"/>
+    <workbookView xWindow="16560" yWindow="10632" windowWidth="25716" windowHeight="14376" xr2:uid="{DE4B78CF-EF85-F649-9989-6581103133C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="48">
   <si>
     <t>Patient01</t>
   </si>
@@ -185,15 +185,18 @@
   <si>
     <t>SWEC-ETHZ Patient 06</t>
   </si>
+  <si>
+    <t>CHB-MIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +235,14 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -259,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,10 +282,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,17 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65653DDE-7EF0-DB45-92D6-0A201B2CECFB}">
-  <dimension ref="A2:P63"/>
+  <dimension ref="A2:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.83150384193194304</v>
@@ -614,943 +631,1134 @@
         <v>0.89218328840970396</v>
       </c>
       <c r="F2">
-        <v>5.2689352360043911</v>
+        <v>5.2689352360043913E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.88803512623490699</v>
       </c>
       <c r="H2">
-        <v>0.88803512623490699</v>
+        <v>0.86232982969896599</v>
       </c>
       <c r="I2">
-        <v>0.86232982969896599</v>
+        <v>0.67132867132867102</v>
       </c>
       <c r="J2">
-        <v>0.67132867132867102</v>
+        <v>0.95477386934673403</v>
       </c>
       <c r="K2">
-        <v>0.95477386934673403</v>
-      </c>
-      <c r="L2">
-        <v>2.074643249176729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
+        <v>2.0746432491767289E-2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>0.79652042360060504</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>0.65413535955233604</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>0.87769784172661902</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>0.78698224852070997</v>
       </c>
-      <c r="F3">
-        <v>11.437216338880484</v>
-      </c>
-      <c r="H3">
+      <c r="F5">
+        <v>0.11437216338880483</v>
+      </c>
+      <c r="G5">
         <v>0.88350983358547697</v>
       </c>
-      <c r="I3">
+      <c r="H5">
         <v>0.86454173153726399</v>
       </c>
-      <c r="J3">
+      <c r="I5">
         <v>0.77918781725888298</v>
       </c>
-      <c r="K3">
+      <c r="J5">
         <v>0.92780172413793105</v>
       </c>
-      <c r="L3">
-        <v>3.0408472012102874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
+      <c r="K5">
+        <v>3.0408472012102873E-2</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>0.92717996289424898</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>0.91174817313097301</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>0.95749704840613903</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>0.90756302521008403</v>
       </c>
-      <c r="F4">
-        <v>3.3673469387755106</v>
-      </c>
-      <c r="H4">
+      <c r="F9">
+        <v>3.3673469387755103E-2</v>
+      </c>
+      <c r="G9">
         <v>0.99721706864563997</v>
       </c>
-      <c r="I4">
+      <c r="H9">
         <v>0.99676375404530704</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>0.99512987012986998</v>
       </c>
-      <c r="L4">
-        <v>0.16697588126159557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
+      <c r="K9">
+        <v>1.6697588126159558E-3</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>0.71382189239332094</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>0.58948769128409895</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>0.77312390924956398</v>
       </c>
-      <c r="E5">
+      <c r="E10">
         <v>0.69235628553379702</v>
       </c>
-      <c r="F5">
-        <v>13.55287569573284</v>
-      </c>
-      <c r="H5">
+      <c r="F10">
+        <v>0.13552875695732841</v>
+      </c>
+      <c r="G10">
         <v>0.92393320964749504</v>
       </c>
-      <c r="I5">
+      <c r="H10">
         <v>0.90420560747663603</v>
       </c>
-      <c r="J5">
+      <c r="I10">
         <v>0.98976982097186705</v>
       </c>
-      <c r="K5">
+      <c r="J10">
         <v>0.88646288209607005</v>
       </c>
-      <c r="L5">
-        <v>4.3413729128014849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6">
+      <c r="K10">
+        <v>4.3413729128014847E-2</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>0.76349316655084598</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>0.69182010262601901</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>0.67801955219173804</v>
       </c>
-      <c r="F6">
-        <v>14.19041000694927</v>
-      </c>
-      <c r="H6">
+      <c r="F11">
+        <v>0.14190410006949269</v>
+      </c>
+      <c r="G11">
         <v>0.85035904563354203</v>
       </c>
-      <c r="I6">
+      <c r="H11">
         <v>0.82483731019522799</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>0.76895565092990004</v>
       </c>
-      <c r="L6">
-        <v>8.9784572619874918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="K11">
+        <v>8.9784572619874922E-2</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J32" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K32" t="s">
         <v>14</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11">
         <v>0.99835937500000005</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12">
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
         <v>0.93283858998144675</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G33" s="11">
         <v>0.94435950891822951</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H33" s="11">
         <v>0.98781558726673957</v>
       </c>
-      <c r="I28" s="12">
-        <v>1</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11">
         <v>0.99650118203309646</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K33" s="11">
         <v>0.97639939485627758</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L33" s="11">
         <v>0.98955823293172673</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B34" s="11">
         <v>0.99874804381846616</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
         <v>0.94836753059077272</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G34" s="11">
         <v>0.96274836145816123</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H34" s="11">
         <v>0.9928666105136692</v>
       </c>
-      <c r="I29" s="12">
-        <v>1</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11">
         <v>0.99476877836379773</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K34" s="11">
         <v>0.97682887737153012</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L34" s="11">
         <v>0.99757575757575745</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B35" s="11">
         <v>0.99797191887675507</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11">
         <v>0.92230738497139897</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G35" s="11">
         <v>0.92870704976856866</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H35" s="11">
         <v>0.98655633489542749</v>
       </c>
-      <c r="I30" s="12">
-        <v>1</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11">
         <v>0.99683761402028692</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K35" s="11">
         <v>0.97700056590641293</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L35" s="11">
         <v>0.97380952380952368</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="12">
-        <f>B35/(B36*B37/60/60)</f>
+      <c r="B36" s="11">
+        <f>B40/(B41*B42/60/60)</f>
         <v>5.7128906250000007E-2</v>
       </c>
-      <c r="C31" s="12">
-        <f>C35/(C36*C37/60/60)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" ref="C31:L31" si="0">D35/(D36*D37/60/60)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C36" s="11">
+        <f>C40/(C41*C42/60/60)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" ref="D36:L36" si="0">D40/(D41*D42/60/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F36" s="11">
         <f t="shared" si="0"/>
         <v>2.7662337662337668</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G36" s="11">
         <f t="shared" si="0"/>
         <v>2.2015288394718553</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
         <v>0.64544456641053793</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I36" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J36" s="11">
         <f t="shared" si="0"/>
         <v>0.15886524822695033</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K36" s="11">
         <f t="shared" si="0"/>
         <v>1.0075642965204235</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L36" s="11">
         <f t="shared" si="0"/>
         <v>0.53012048192771088</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B37" s="11">
         <v>0.99836028152010103</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
         <v>0.92827772980462542</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G37" s="11">
         <v>0.94179704012379184</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H37" s="11">
         <v>0.97345889466640823</v>
       </c>
-      <c r="I32" s="12">
-        <v>1</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
         <v>0.99144616444797751</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K37" s="11">
         <v>0.96540615505303473</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L37" s="11">
         <v>0.99101149425287338</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>2.6</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>99.4</v>
       </c>
-      <c r="G35">
+      <c r="G40">
         <v>158.4</v>
       </c>
-      <c r="H35">
+      <c r="H40">
         <v>19.600000000000001</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>5.6</v>
       </c>
-      <c r="K35">
+      <c r="K40">
         <v>22.2</v>
       </c>
-      <c r="L35">
+      <c r="L40">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>2560</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>1237</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>1237</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>2156</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>2156</v>
       </c>
-      <c r="G36">
+      <c r="G41">
         <v>4317</v>
       </c>
-      <c r="H36">
+      <c r="H41">
         <v>1822</v>
       </c>
-      <c r="I36">
+      <c r="I41">
         <v>402</v>
       </c>
-      <c r="J36">
+      <c r="J41">
         <v>2115</v>
       </c>
-      <c r="K36">
+      <c r="K41">
         <v>1322</v>
       </c>
-      <c r="L36">
+      <c r="L41">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>64</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>60</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>60</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>60</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>60</v>
       </c>
-      <c r="G37">
+      <c r="G42">
         <v>60</v>
       </c>
-      <c r="H37">
+      <c r="H42">
         <v>60</v>
       </c>
-      <c r="I37">
+      <c r="I42">
         <v>60</v>
       </c>
-      <c r="J37">
+      <c r="J42">
         <v>60</v>
       </c>
-      <c r="K37">
+      <c r="K42">
         <v>60</v>
       </c>
-      <c r="L37">
+      <c r="L42">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C49">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C54">
         <v>0.83150384193194304</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>0.72211376256243698</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>0.56508875739645004</v>
       </c>
-      <c r="F49">
+      <c r="F54">
         <v>0.89218328840970396</v>
       </c>
-      <c r="G49">
+      <c r="G54">
         <v>160</v>
       </c>
-      <c r="I49">
+      <c r="I54">
         <v>0.88803512623490699</v>
       </c>
-      <c r="J49">
+      <c r="J54">
         <v>0.86232982969896599</v>
       </c>
-      <c r="K49">
+      <c r="K54">
         <v>0.67132867132867102</v>
       </c>
-      <c r="L49">
+      <c r="L54">
         <v>0.95477386934673403</v>
       </c>
-      <c r="M49">
+      <c r="M54">
         <v>63</v>
       </c>
-      <c r="O49">
+      <c r="O54">
         <v>1822</v>
       </c>
-      <c r="P49">
+      <c r="P54">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C50">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C55">
         <v>0.79652042360060504</v>
       </c>
-      <c r="D50">
+      <c r="D55">
         <v>0.65413535955233604</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>0.87769784172661902</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>0.78698224852070997</v>
       </c>
-      <c r="G50">
+      <c r="G55">
         <v>252</v>
       </c>
-      <c r="I50">
+      <c r="I55">
         <v>0.88350983358547697</v>
       </c>
-      <c r="J50">
+      <c r="J55">
         <v>0.86454173153726399</v>
       </c>
-      <c r="K50">
+      <c r="K55">
         <v>0.77918781725888298</v>
       </c>
-      <c r="L50">
+      <c r="L55">
         <v>0.92780172413793105</v>
       </c>
-      <c r="M50">
+      <c r="M55">
         <v>67</v>
       </c>
-      <c r="O50">
+      <c r="O55">
         <v>1322</v>
       </c>
-      <c r="P50">
+      <c r="P55">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C51">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C56">
         <v>0.92717996289424898</v>
       </c>
-      <c r="D51">
+      <c r="D56">
         <v>0.91174817313097301</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>0.95749704840613903</v>
       </c>
-      <c r="F51">
+      <c r="F56">
         <v>0.90756302521008403</v>
       </c>
-      <c r="G51">
+      <c r="G56">
         <v>121</v>
       </c>
-      <c r="I51">
+      <c r="I56">
         <v>0.99721706864563997</v>
       </c>
-      <c r="J51">
+      <c r="J56">
         <v>0.99676375404530704</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
         <v>0.99512987012986998</v>
       </c>
-      <c r="M51">
+      <c r="M56">
         <v>6</v>
       </c>
-      <c r="O51">
+      <c r="O56">
         <v>2156</v>
       </c>
-      <c r="P51">
+      <c r="P56">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C52">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C57">
         <v>0.71382189239332094</v>
       </c>
-      <c r="D52">
+      <c r="D57">
         <v>0.58948769128409895</v>
       </c>
-      <c r="E52">
+      <c r="E57">
         <v>0.77312390924956398</v>
       </c>
-      <c r="F52">
+      <c r="F57">
         <v>0.69235628553379702</v>
       </c>
-      <c r="G52">
+      <c r="G57">
         <v>487</v>
       </c>
-      <c r="I52">
+      <c r="I57">
         <v>0.92393320964749504</v>
       </c>
-      <c r="J52">
+      <c r="J57">
         <v>0.90420560747663603</v>
       </c>
-      <c r="K52">
+      <c r="K57">
         <v>0.98976982097186705</v>
       </c>
-      <c r="L52">
+      <c r="L57">
         <v>0.88646288209607005</v>
       </c>
-      <c r="M52">
+      <c r="M57">
         <v>156</v>
       </c>
-      <c r="O52">
+      <c r="O57">
         <v>2156</v>
       </c>
-      <c r="P52">
+      <c r="P57">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C53">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C58">
         <v>0.76349316655084598</v>
       </c>
-      <c r="D53">
+      <c r="D58">
         <v>0.69182010262601901</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>0.67801955219173804</v>
       </c>
-      <c r="G53">
+      <c r="G58">
         <v>1021</v>
       </c>
-      <c r="I53">
+      <c r="I58">
         <v>0.85035904563354203</v>
       </c>
-      <c r="J53">
+      <c r="J58">
         <v>0.82483731019522799</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>0.76895565092990004</v>
       </c>
-      <c r="M53">
+      <c r="M58">
         <v>646</v>
       </c>
-      <c r="O53">
+      <c r="O58">
         <v>4317</v>
       </c>
-      <c r="P53">
+      <c r="P58">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>42</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>0.83150384193194304</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>0.72211376256243698</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>0.56508875739645004</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>0.89218328840970396</v>
       </c>
-      <c r="G55">
-        <f>G49/(O49*P49/60/60)</f>
+      <c r="G60">
+        <f>G54/(O54*P54/60/60)</f>
         <v>5.2689352360043911</v>
       </c>
-      <c r="I55">
+      <c r="I60">
         <v>0.88803512623490699</v>
       </c>
-      <c r="J55">
+      <c r="J60">
         <v>0.86232982969896599</v>
       </c>
-      <c r="K55">
+      <c r="K60">
         <v>0.67132867132867102</v>
       </c>
-      <c r="L55">
+      <c r="L60">
         <v>0.95477386934673403</v>
       </c>
-      <c r="M55">
-        <f>M49/(O49*P49/60/60)</f>
+      <c r="M60">
+        <f>M54/(O54*P54/60/60)</f>
         <v>2.074643249176729</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>43</v>
       </c>
-      <c r="C56">
+      <c r="C61">
         <v>0.79652042360060504</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>0.65413535955233604</v>
       </c>
-      <c r="E56">
+      <c r="E61">
         <v>0.87769784172661902</v>
       </c>
-      <c r="F56">
+      <c r="F61">
         <v>0.78698224852070997</v>
       </c>
-      <c r="G56">
-        <f>G50/(O50*P50/60/60)</f>
+      <c r="G61">
+        <f>G55/(O55*P55/60/60)</f>
         <v>11.437216338880484</v>
       </c>
-      <c r="I56">
+      <c r="I61">
         <v>0.88350983358547697</v>
       </c>
-      <c r="J56">
+      <c r="J61">
         <v>0.86454173153726399</v>
       </c>
-      <c r="K56">
+      <c r="K61">
         <v>0.77918781725888298</v>
       </c>
-      <c r="L56">
+      <c r="L61">
         <v>0.92780172413793105</v>
       </c>
-      <c r="M56">
-        <f t="shared" ref="M56:M59" si="1">M50/(O50*P50/60/60)</f>
+      <c r="M61">
+        <f t="shared" ref="M61:M64" si="1">M55/(O55*P55/60/60)</f>
         <v>3.0408472012102874</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="C57">
+      <c r="C62">
         <v>0.92717996289424898</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>0.91174817313097301</v>
       </c>
-      <c r="E57">
+      <c r="E62">
         <v>0.95749704840613903</v>
       </c>
-      <c r="F57">
+      <c r="F62">
         <v>0.90756302521008403</v>
       </c>
-      <c r="G57">
-        <f t="shared" ref="G57:G59" si="2">G51/(O51*P51/60/60)</f>
+      <c r="G62">
+        <f t="shared" ref="G62:G64" si="2">G56/(O56*P56/60/60)</f>
         <v>3.3673469387755106</v>
       </c>
-      <c r="I57">
+      <c r="I62">
         <v>0.99721706864563997</v>
       </c>
-      <c r="J57">
+      <c r="J62">
         <v>0.99676375404530704</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>0.99512987012986998</v>
       </c>
-      <c r="M57">
+      <c r="M62">
         <f t="shared" si="1"/>
         <v>0.16697588126159557</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>45</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>0.71382189239332094</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>0.58948769128409895</v>
       </c>
-      <c r="E58">
+      <c r="E63">
         <v>0.77312390924956398</v>
       </c>
-      <c r="F58">
+      <c r="F63">
         <v>0.69235628553379702</v>
       </c>
-      <c r="G58">
+      <c r="G63">
         <f t="shared" si="2"/>
         <v>13.55287569573284</v>
       </c>
-      <c r="I58">
+      <c r="I63">
         <v>0.92393320964749504</v>
       </c>
-      <c r="J58">
+      <c r="J63">
         <v>0.90420560747663603</v>
       </c>
-      <c r="K58">
+      <c r="K63">
         <v>0.98976982097186705</v>
       </c>
-      <c r="L58">
+      <c r="L63">
         <v>0.88646288209607005</v>
       </c>
-      <c r="M58">
+      <c r="M63">
         <f t="shared" si="1"/>
         <v>4.3413729128014849</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="C59">
+      <c r="C64">
         <v>0.76349316655084598</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>0.69182010262601901</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>0.67801955219173804</v>
       </c>
-      <c r="G59">
+      <c r="G64">
         <f t="shared" si="2"/>
         <v>14.19041000694927</v>
       </c>
-      <c r="I59">
+      <c r="I64">
         <v>0.85035904563354203</v>
       </c>
-      <c r="J59">
+      <c r="J64">
         <v>0.82483731019522799</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
         <v>0.76895565092990004</v>
       </c>
-      <c r="M59">
+      <c r="M64">
         <f t="shared" si="1"/>
         <v>8.9784572619874918</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E62">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67">
         <v>0.83150384193194304</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <v>0.79652042360060504</v>
       </c>
-      <c r="G62">
+      <c r="G67">
         <v>0.92717996289424898</v>
       </c>
-      <c r="H62">
+      <c r="H67">
         <v>0.71382189239332094</v>
       </c>
-      <c r="I62">
+      <c r="I67">
         <v>0.76349316655084598</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E63">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68">
         <v>0.88803512623490699</v>
       </c>
-      <c r="F63">
+      <c r="F68">
         <v>0.88350983358547697</v>
       </c>
-      <c r="G63">
+      <c r="G68">
         <v>0.99721706864563997</v>
       </c>
-      <c r="H63">
+      <c r="H68">
         <v>0.92393320964749504</v>
       </c>
-      <c r="I63">
+      <c r="I68">
         <v>0.85035904563354203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
+  <mergeCells count="4">
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1563,9 +1771,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1880,7 @@
         <v>24229249</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1918,7 @@
         <v>24229262</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1956,7 @@
         <v>24229268</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="J7" s="1">
         <v>0.93194291986827604</v>
       </c>
@@ -1777,7 +1985,7 @@
         <v>24242703</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="J8" s="1">
         <v>0.93798024149286496</v>
       </c>
@@ -1806,7 +2014,7 @@
         <v>24242600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +2048,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +2059,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +2070,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +2081,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +2092,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +2126,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +2137,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1940,7 +2148,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +2159,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +2170,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +2193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +2216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2227,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2238,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2249,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2260,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2294,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2305,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -2108,7 +2316,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2327,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
@@ -2143,9 +2351,9 @@
       <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2165,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2245,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2473,7 @@
         <v>0.99180140760050495</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
         <v>0.99835937500000005</v>
@@ -2301,9 +2509,9 @@
       <selection activeCell="E18" sqref="E18:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2441,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
         <v>1</v>
@@ -2463,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2486,7 +2694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2578,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>AVERAGE(B10:B14)</f>
         <v>1</v>
@@ -2623,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2738,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -2783,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2806,7 +3014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2852,7 +3060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +3083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +3106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +3129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>AVERAGE(B26:B30)</f>
         <v>0.93283858998144675</v>
@@ -2943,7 +3151,7 @@
         <v>0.92827772980462542</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2966,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +3197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3012,7 +3220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3035,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +3289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <f>AVERAGE(B34:B38)</f>
         <v>0.94435950891822951</v>
@@ -3118,9 +3326,9 @@
       <selection activeCell="F15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3189,7 +3397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3235,7 +3443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3258,7 +3466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
         <v>0.98781558726673957</v>
@@ -3280,7 +3488,7 @@
         <v>0.97345889466640823</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3326,7 +3534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3372,7 +3580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3418,7 +3626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>AVERAGE(B10:B14)</f>
         <v>1</v>
@@ -3440,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3463,7 +3671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3509,7 +3717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3532,7 +3740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +3763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3578,7 +3786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>AVERAGE(B18:B22)</f>
         <v>0.99650118203309646</v>
@@ -3600,7 +3808,7 @@
         <v>0.99144616444797751</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -3623,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3646,7 +3854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3669,7 +3877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +3900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3715,7 +3923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3738,7 +3946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>AVERAGE(B26:B30)</f>
         <v>0.97639939485627758</v>
@@ -3760,7 +3968,7 @@
         <v>0.96540615505303473</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +4014,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +4037,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3852,7 +4060,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3875,7 +4083,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +4106,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <f>AVERAGE(B34:B38)</f>
         <v>0.98955823293172673</v>
@@ -3934,12 +4142,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3985,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4008,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4031,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4054,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4077,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -4146,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4192,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4215,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4238,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4284,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -4307,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -4330,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -4376,7 +4584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -4399,7 +4607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -4422,7 +4630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -4445,7 +4653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -4491,7 +4699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -4514,7 +4722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -4537,7 +4745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -4560,7 +4768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -4606,7 +4814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -4643,9 +4851,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4899,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4714,7 +4922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4760,7 +4968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4806,7 +5014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +5037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4852,7 +5060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +5083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4898,7 +5106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4921,7 +5129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +5152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +5175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +5198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5036,7 +5244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -5059,7 +5267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5082,7 +5290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5128,7 +5336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +5359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5174,7 +5382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5197,7 +5405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -5220,7 +5428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -5289,7 +5497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -5349,12 +5557,12 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5423,7 +5631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +5654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5469,7 +5677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5492,7 +5700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -5515,7 +5723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5538,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -5561,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5584,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -5630,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5653,7 +5861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -5699,7 +5907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -5722,7 +5930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -5745,7 +5953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -5768,7 +5976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5791,7 +5999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -5814,7 +6022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -5837,7 +6045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -5860,7 +6068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -5883,7 +6091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -5906,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -5929,7 +6137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -5952,7 +6160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -5975,7 +6183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -6021,7 +6229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -6058,9 +6266,9 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6106,7 +6314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6129,7 +6337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6152,7 +6360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6175,7 +6383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6198,7 +6406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6221,7 +6429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6244,7 +6452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6267,7 +6475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6290,7 +6498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6313,7 +6521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -6359,7 +6567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6382,7 +6590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6405,7 +6613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6428,7 +6636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6451,7 +6659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6474,7 +6682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6497,7 +6705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -6520,7 +6728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -6543,7 +6751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -6566,7 +6774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6589,7 +6797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6612,7 +6820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -6635,7 +6843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -6658,7 +6866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -6681,7 +6889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -6704,7 +6912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -6727,7 +6935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6761,15 +6969,15 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6792,7 +7000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +7011,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -6814,7 +7022,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -6825,7 +7033,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6836,7 +7044,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -6847,7 +7055,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6856,7 +7064,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6865,7 +7073,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -6888,7 +7096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -6908,7 +7116,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -6928,7 +7136,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -6948,7 +7156,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -6968,7 +7176,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -6988,7 +7196,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -6997,7 +7205,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -7015,7 +7223,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7038,7 +7246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -7061,27 +7269,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -7104,7 +7312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -7127,7 +7335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -7138,7 +7346,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
@@ -7149,7 +7357,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
@@ -7160,7 +7368,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
@@ -7171,7 +7379,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -7194,7 +7402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -7242,7 +7450,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -7271,7 +7479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -7306,7 +7514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -7323,7 +7531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>

--- a/FigureGeneration/SeizurePredictionResult.xlsx
+++ b/FigureGeneration/SeizurePredictionResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\123\Memristive-Seizure-Detection-and-Prediction-by-Parallel-Convolutional-Neural-Networks\FigureGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8796BD5-4BD0-4C89-A4BD-5E5C6D09E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7856A-9B8A-4278-9B61-66F414400510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="10632" windowWidth="25716" windowHeight="14376" xr2:uid="{DE4B78CF-EF85-F649-9989-6581103133C2}"/>
+    <workbookView xWindow="58230" yWindow="3720" windowWidth="32955" windowHeight="19350" xr2:uid="{DE4B78CF-EF85-F649-9989-6581103133C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="A2:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -654,37 +654,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.79652042360060504</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.65413535955233604</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.87769784172661902</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.78698224852070997</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.11437216338880483</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.88350983358547697</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.86454173153726399</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.77918781725888298</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.92780172413793105</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>3.0408472012102873E-2</v>
       </c>
       <c r="L3" s="13"/>
     </row>
@@ -693,34 +693,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.92717996289424898</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.91174817313097301</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.95749704840613903</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.90756302521008403</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>3.3673469387755103E-2</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.99721706864563997</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.99676375404530704</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.99512987012986998</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>1.6697588126159558E-3</v>
       </c>
       <c r="L4" s="13"/>
     </row>
@@ -729,253 +729,88 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.79652042360060504</v>
+        <v>0.71382189239332094</v>
       </c>
       <c r="C5">
-        <v>0.65413535955233604</v>
+        <v>0.58948769128409895</v>
       </c>
       <c r="D5">
-        <v>0.87769784172661902</v>
+        <v>0.77312390924956398</v>
       </c>
       <c r="E5">
-        <v>0.78698224852070997</v>
+        <v>0.69235628553379702</v>
       </c>
       <c r="F5">
-        <v>0.11437216338880483</v>
+        <v>0.13552875695732841</v>
       </c>
       <c r="G5">
-        <v>0.88350983358547697</v>
+        <v>0.92393320964749504</v>
       </c>
       <c r="H5">
-        <v>0.86454173153726399</v>
+        <v>0.90420560747663603</v>
       </c>
       <c r="I5">
-        <v>0.77918781725888298</v>
+        <v>0.98976982097186705</v>
       </c>
       <c r="J5">
-        <v>0.92780172413793105</v>
+        <v>0.88646288209607005</v>
       </c>
       <c r="K5">
-        <v>3.0408472012102873E-2</v>
+        <v>4.3413729128014847E-2</v>
       </c>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.76349316655084598</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.69182010262601901</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.67801955219173804</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.14190410006949269</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.85035904563354203</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.82483731019522799</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.76895565092990004</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>8.9784572619874922E-2</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
       <c r="L7" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
-      </c>
-      <c r="K8">
-        <v>0.5</v>
-      </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.92717996289424898</v>
-      </c>
-      <c r="C9">
-        <v>0.91174817313097301</v>
-      </c>
-      <c r="D9">
-        <v>0.95749704840613903</v>
-      </c>
-      <c r="E9">
-        <v>0.90756302521008403</v>
-      </c>
-      <c r="F9">
-        <v>3.3673469387755103E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.99721706864563997</v>
-      </c>
-      <c r="H9">
-        <v>0.99676375404530704</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.99512987012986998</v>
-      </c>
-      <c r="K9">
-        <v>1.6697588126159558E-3</v>
-      </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.71382189239332094</v>
-      </c>
-      <c r="C10">
-        <v>0.58948769128409895</v>
-      </c>
-      <c r="D10">
-        <v>0.77312390924956398</v>
-      </c>
-      <c r="E10">
-        <v>0.69235628553379702</v>
-      </c>
-      <c r="F10">
-        <v>0.13552875695732841</v>
-      </c>
-      <c r="G10">
-        <v>0.92393320964749504</v>
-      </c>
-      <c r="H10">
-        <v>0.90420560747663603</v>
-      </c>
-      <c r="I10">
-        <v>0.98976982097186705</v>
-      </c>
-      <c r="J10">
-        <v>0.88646288209607005</v>
-      </c>
-      <c r="K10">
-        <v>4.3413729128014847E-2</v>
-      </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.76349316655084598</v>
-      </c>
-      <c r="C11">
-        <v>0.69182010262601901</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0.67801955219173804</v>
-      </c>
-      <c r="F11">
-        <v>0.14190410006949269</v>
-      </c>
-      <c r="G11">
-        <v>0.85035904563354203</v>
-      </c>
-      <c r="H11">
-        <v>0.82483731019522799</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.76895565092990004</v>
-      </c>
-      <c r="K11">
-        <v>8.9784572619874922E-2</v>
-      </c>
       <c r="L11" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
